--- a/SMEI Student Progression.xlsx
+++ b/SMEI Student Progression.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://smicollege-my.sharepoint.com/personal/chunhim_lee_smic_edu_au/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="839" documentId="8_{6F61C2F0-E5B6-4CF1-9A54-C774EE3CE7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCB0697C-DFB8-4DE3-8314-BDC638F6EA39}"/>
+  <xr:revisionPtr revIDLastSave="846" documentId="8_{6F61C2F0-E5B6-4CF1-9A54-C774EE3CE7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF69A657-D3A4-4B1D-B733-1FE15C026EE8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5D51EFEA-7334-4EAD-A029-1AF1D43C51BE}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="SMEI" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SMEI!$A$1:$Q$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SMEI!$A$1:$R$100</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="248">
   <si>
     <t>StudentID</t>
   </si>
@@ -780,6 +780,9 @@
   </si>
   <si>
     <t>Failed</t>
+  </si>
+  <si>
+    <t>Attendance</t>
   </si>
 </sst>
 </file>
@@ -1181,10 +1184,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7A5D07-62C5-4D4B-894B-D70E7F454EC8}">
   <sheetPr codeName="Sheet1" filterMode="1"/>
-  <dimension ref="A1:Q100"/>
+  <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="J86" sqref="J86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,15 +1199,16 @@
     <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="27.85546875" customWidth="1"/>
-    <col min="10" max="11" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="27.85546875" customWidth="1"/>
+    <col min="11" max="12" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1227,37 +1231,40 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I1" t="s">
         <v>234</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>235</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>236</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>237</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>238</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>239</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>240</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>241</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>242</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>220</v>
       </c>
@@ -1279,8 +1286,11 @@
       <c r="G2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>168</v>
       </c>
@@ -1302,8 +1312,11 @@
       <c r="G3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>86.67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1325,8 +1338,11 @@
       <c r="G4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>37.78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1348,8 +1364,11 @@
       <c r="G5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>73.33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1371,14 +1390,17 @@
       <c r="G6" t="s">
         <v>10</v>
       </c>
-      <c r="L6" t="s">
-        <v>245</v>
+      <c r="H6">
+        <v>57.33</v>
       </c>
       <c r="M6" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -1400,14 +1422,17 @@
       <c r="G7" t="s">
         <v>10</v>
       </c>
-      <c r="L7" t="s">
-        <v>246</v>
+      <c r="H7">
+        <v>90.77</v>
       </c>
       <c r="M7" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1429,8 +1454,11 @@
       <c r="G8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
@@ -1452,14 +1480,17 @@
       <c r="G9" t="s">
         <v>10</v>
       </c>
-      <c r="L9" t="s">
+      <c r="H9">
+        <v>68.89</v>
+      </c>
+      <c r="M9" t="s">
         <v>246</v>
       </c>
-      <c r="M9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
@@ -1481,14 +1512,17 @@
       <c r="G10" t="s">
         <v>10</v>
       </c>
-      <c r="L10" t="s">
-        <v>245</v>
+      <c r="H10">
+        <v>55.79</v>
       </c>
       <c r="M10" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>169</v>
       </c>
@@ -1510,8 +1544,11 @@
       <c r="G11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>170</v>
       </c>
@@ -1533,8 +1570,11 @@
       <c r="G12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>214</v>
       </c>
@@ -1556,8 +1596,11 @@
       <c r="G13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>171</v>
       </c>
@@ -1579,8 +1622,11 @@
       <c r="G14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>233</v>
       </c>
@@ -1602,8 +1648,11 @@
       <c r="G15" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>231</v>
       </c>
@@ -1625,8 +1674,11 @@
       <c r="G16" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>222</v>
       </c>
@@ -1648,8 +1700,11 @@
       <c r="G17" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>218</v>
       </c>
@@ -1671,8 +1726,11 @@
       <c r="G18" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>198</v>
       </c>
@@ -1694,8 +1752,11 @@
       <c r="G19" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>176</v>
       </c>
@@ -1717,8 +1778,11 @@
       <c r="G20" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>177</v>
       </c>
@@ -1740,8 +1804,11 @@
       <c r="G21" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>178</v>
       </c>
@@ -1763,8 +1830,11 @@
       <c r="G22" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>35.71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>224</v>
       </c>
@@ -1786,8 +1856,11 @@
       <c r="G23" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>179</v>
       </c>
@@ -1809,8 +1882,11 @@
       <c r="G24" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>95.83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>199</v>
       </c>
@@ -1832,8 +1908,11 @@
       <c r="G25" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>207</v>
       </c>
@@ -1855,8 +1934,11 @@
       <c r="G26" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>208</v>
       </c>
@@ -1878,8 +1960,11 @@
       <c r="G27" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
@@ -1901,8 +1986,11 @@
       <c r="G28" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>26.67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>192</v>
       </c>
@@ -1924,8 +2012,11 @@
       <c r="G29" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>34</v>
       </c>
@@ -1947,8 +2038,11 @@
       <c r="G30" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>46.67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>36</v>
       </c>
@@ -1970,8 +2064,11 @@
       <c r="G31" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>38</v>
       </c>
@@ -1993,8 +2090,11 @@
       <c r="G32" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>78.13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>41</v>
       </c>
@@ -2016,8 +2116,11 @@
       <c r="G33" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>44</v>
       </c>
@@ -2039,8 +2142,11 @@
       <c r="G34" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>46</v>
       </c>
@@ -2062,11 +2168,14 @@
       <c r="G35" t="s">
         <v>244</v>
       </c>
-      <c r="I35" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>84.38</v>
+      </c>
+      <c r="J35" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>180</v>
       </c>
@@ -2088,8 +2197,11 @@
       <c r="G36" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>48</v>
       </c>
@@ -2111,8 +2223,11 @@
       <c r="G37" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>54.29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>216</v>
       </c>
@@ -2134,8 +2249,11 @@
       <c r="G38" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -2157,11 +2275,14 @@
       <c r="G39" t="s">
         <v>244</v>
       </c>
-      <c r="I39" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>84.38</v>
+      </c>
+      <c r="J39" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -2183,11 +2304,14 @@
       <c r="G40" t="s">
         <v>244</v>
       </c>
-      <c r="I40" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>62.5</v>
+      </c>
+      <c r="J40" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -2209,14 +2333,17 @@
       <c r="G41" t="s">
         <v>244</v>
       </c>
-      <c r="H41" t="s">
-        <v>246</v>
+      <c r="H41">
+        <v>68.75</v>
       </c>
       <c r="I41" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -2238,8 +2365,11 @@
       <c r="G42" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -2261,8 +2391,11 @@
       <c r="G43" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -2284,8 +2417,11 @@
       <c r="G44" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>59.62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -2307,8 +2443,11 @@
       <c r="G45" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -2330,14 +2469,17 @@
       <c r="G46" t="s">
         <v>244</v>
       </c>
-      <c r="H46" t="s">
-        <v>246</v>
+      <c r="H46">
+        <v>40</v>
       </c>
       <c r="I46" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>70</v>
       </c>
@@ -2359,8 +2501,11 @@
       <c r="G47" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>72</v>
       </c>
@@ -2382,14 +2527,17 @@
       <c r="G48" t="s">
         <v>244</v>
       </c>
-      <c r="H48" t="s">
-        <v>246</v>
+      <c r="H48">
+        <v>81.25</v>
       </c>
       <c r="I48" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>228</v>
       </c>
@@ -2411,8 +2559,11 @@
       <c r="G49" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>74</v>
       </c>
@@ -2434,14 +2585,17 @@
       <c r="G50" t="s">
         <v>244</v>
       </c>
-      <c r="L50" t="s">
-        <v>245</v>
+      <c r="H50">
+        <v>76.56</v>
       </c>
       <c r="M50" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N50" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>76</v>
       </c>
@@ -2463,8 +2617,11 @@
       <c r="G51" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>79</v>
       </c>
@@ -2486,11 +2643,14 @@
       <c r="G52" t="s">
         <v>244</v>
       </c>
-      <c r="I52" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <v>80.36</v>
+      </c>
+      <c r="J52" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>81</v>
       </c>
@@ -2512,14 +2672,17 @@
       <c r="G53" t="s">
         <v>244</v>
       </c>
-      <c r="H53" t="s">
-        <v>245</v>
+      <c r="H53">
+        <v>81.25</v>
       </c>
       <c r="I53" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>181</v>
       </c>
@@ -2541,8 +2704,11 @@
       <c r="G54" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>83</v>
       </c>
@@ -2564,8 +2730,11 @@
       <c r="G55" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <v>81.05</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>85</v>
       </c>
@@ -2587,14 +2756,17 @@
       <c r="G56" t="s">
         <v>244</v>
       </c>
-      <c r="H56" t="s">
-        <v>246</v>
+      <c r="H56">
+        <v>80.88</v>
       </c>
       <c r="I56" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J56" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>87</v>
       </c>
@@ -2616,11 +2788,14 @@
       <c r="G57" t="s">
         <v>244</v>
       </c>
-      <c r="H57" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <v>72.06</v>
+      </c>
+      <c r="I57" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>89</v>
       </c>
@@ -2642,8 +2817,11 @@
       <c r="G58" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>91</v>
       </c>
@@ -2665,8 +2843,11 @@
       <c r="G59" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>93</v>
       </c>
@@ -2688,14 +2869,17 @@
       <c r="G60" t="s">
         <v>244</v>
       </c>
-      <c r="H60" t="s">
-        <v>246</v>
+      <c r="H60">
+        <v>82.89</v>
       </c>
       <c r="I60" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J60" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>96</v>
       </c>
@@ -2717,14 +2901,17 @@
       <c r="G61" t="s">
         <v>244</v>
       </c>
-      <c r="J61" t="s">
-        <v>246</v>
+      <c r="H61">
+        <v>82.14</v>
       </c>
       <c r="K61" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L61" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>193</v>
       </c>
@@ -2746,8 +2933,11 @@
       <c r="G62" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <v>73.33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>98</v>
       </c>
@@ -2769,11 +2959,14 @@
       <c r="G63" t="s">
         <v>244</v>
       </c>
-      <c r="L63" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H63">
+        <v>56.82</v>
+      </c>
+      <c r="M63" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>101</v>
       </c>
@@ -2795,8 +2988,11 @@
       <c r="G64" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H64">
+        <v>29.35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>104</v>
       </c>
@@ -2818,8 +3014,11 @@
       <c r="G65" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>106</v>
       </c>
@@ -2841,8 +3040,11 @@
       <c r="G66" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H66">
+        <v>42.86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>108</v>
       </c>
@@ -2864,14 +3066,17 @@
       <c r="G67" t="s">
         <v>244</v>
       </c>
-      <c r="J67" t="s">
-        <v>246</v>
+      <c r="H67">
+        <v>73.75</v>
       </c>
       <c r="K67" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L67" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>110</v>
       </c>
@@ -2893,8 +3098,11 @@
       <c r="G68" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H68">
+        <v>53.13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>182</v>
       </c>
@@ -2916,8 +3124,11 @@
       <c r="G69" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H69">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>112</v>
       </c>
@@ -2939,14 +3150,17 @@
       <c r="G70" t="s">
         <v>244</v>
       </c>
-      <c r="H70" t="s">
-        <v>246</v>
+      <c r="H70">
+        <v>81.819999999999993</v>
       </c>
       <c r="I70" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J70" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>114</v>
       </c>
@@ -2968,8 +3182,11 @@
       <c r="G71" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H71">
+        <v>50.77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>117</v>
       </c>
@@ -2991,14 +3208,17 @@
       <c r="G72" t="s">
         <v>244</v>
       </c>
-      <c r="L72" t="s">
-        <v>246</v>
+      <c r="H72">
+        <v>80.77</v>
       </c>
       <c r="M72" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N72" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>120</v>
       </c>
@@ -3020,8 +3240,11 @@
       <c r="G73" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H73">
+        <v>53.85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>122</v>
       </c>
@@ -3043,14 +3266,17 @@
       <c r="G74" t="s">
         <v>244</v>
       </c>
-      <c r="J74" t="s">
-        <v>245</v>
+      <c r="H74">
+        <v>77.31</v>
       </c>
       <c r="K74" t="s">
+        <v>245</v>
+      </c>
+      <c r="L74" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>124</v>
       </c>
@@ -3072,14 +3298,17 @@
       <c r="G75" t="s">
         <v>244</v>
       </c>
-      <c r="J75" t="s">
-        <v>245</v>
+      <c r="H75">
+        <v>81</v>
       </c>
       <c r="K75" t="s">
+        <v>245</v>
+      </c>
+      <c r="L75" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>126</v>
       </c>
@@ -3101,14 +3330,17 @@
       <c r="G76" t="s">
         <v>244</v>
       </c>
-      <c r="I76" t="s">
-        <v>245</v>
+      <c r="H76">
+        <v>29.41</v>
       </c>
       <c r="J76" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K76" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>129</v>
       </c>
@@ -3130,14 +3362,17 @@
       <c r="G77" t="s">
         <v>244</v>
       </c>
-      <c r="J77" t="s">
-        <v>245</v>
+      <c r="H77">
+        <v>83.48</v>
       </c>
       <c r="K77" t="s">
+        <v>245</v>
+      </c>
+      <c r="L77" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>131</v>
       </c>
@@ -3159,14 +3394,17 @@
       <c r="G78" t="s">
         <v>244</v>
       </c>
-      <c r="J78" t="s">
-        <v>245</v>
+      <c r="H78">
+        <v>86.96</v>
       </c>
       <c r="K78" t="s">
+        <v>245</v>
+      </c>
+      <c r="L78" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>133</v>
       </c>
@@ -3188,8 +3426,11 @@
       <c r="G79" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>135</v>
       </c>
@@ -3211,8 +3452,8 @@
       <c r="G80" t="s">
         <v>244</v>
       </c>
-      <c r="I80" t="s">
-        <v>245</v>
+      <c r="H80">
+        <v>93.53</v>
       </c>
       <c r="J80" t="s">
         <v>245</v>
@@ -3220,8 +3461,11 @@
       <c r="K80" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L80" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>137</v>
       </c>
@@ -3243,20 +3487,23 @@
       <c r="G81" t="s">
         <v>244</v>
       </c>
-      <c r="H81" t="s">
-        <v>246</v>
+      <c r="H81">
+        <v>81.290000000000006</v>
       </c>
       <c r="I81" t="s">
         <v>246</v>
       </c>
       <c r="J81" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K81" t="s">
+        <v>245</v>
+      </c>
+      <c r="L81" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>139</v>
       </c>
@@ -3278,17 +3525,20 @@
       <c r="G82" t="s">
         <v>244</v>
       </c>
-      <c r="J82" t="s">
-        <v>245</v>
-      </c>
-      <c r="L82" t="s">
+      <c r="H82">
+        <v>82.86</v>
+      </c>
+      <c r="K82" t="s">
+        <v>245</v>
+      </c>
+      <c r="M82" t="s">
         <v>246</v>
       </c>
-      <c r="M82" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N82" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>141</v>
       </c>
@@ -3310,11 +3560,14 @@
       <c r="G83" t="s">
         <v>244</v>
       </c>
-      <c r="M83" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H83">
+        <v>51.61</v>
+      </c>
+      <c r="N83" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>143</v>
       </c>
@@ -3336,8 +3589,8 @@
       <c r="G84" t="s">
         <v>244</v>
       </c>
-      <c r="H84" t="s">
-        <v>245</v>
+      <c r="H84">
+        <v>84.62</v>
       </c>
       <c r="I84" t="s">
         <v>245</v>
@@ -3346,10 +3599,13 @@
         <v>245</v>
       </c>
       <c r="K84" t="s">
+        <v>245</v>
+      </c>
+      <c r="L84" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>145</v>
       </c>
@@ -3371,8 +3627,8 @@
       <c r="G85" t="s">
         <v>244</v>
       </c>
-      <c r="H85" t="s">
-        <v>245</v>
+      <c r="H85">
+        <v>81.33</v>
       </c>
       <c r="I85" t="s">
         <v>245</v>
@@ -3383,8 +3639,11 @@
       <c r="K85" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L85" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>147</v>
       </c>
@@ -3406,8 +3665,11 @@
       <c r="G86" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H86">
+        <v>49.21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>149</v>
       </c>
@@ -3429,20 +3691,23 @@
       <c r="G87" t="s">
         <v>244</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H87">
+        <v>59.35</v>
+      </c>
+      <c r="I87" t="s">
         <v>246</v>
       </c>
-      <c r="I87" t="s">
-        <v>245</v>
-      </c>
       <c r="J87" t="s">
         <v>245</v>
       </c>
       <c r="K87" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L87" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>151</v>
       </c>
@@ -3464,8 +3729,11 @@
       <c r="G88" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H88">
+        <v>74.42</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>153</v>
       </c>
@@ -3487,8 +3755,11 @@
       <c r="G89" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H89">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>155</v>
       </c>
@@ -3510,14 +3781,14 @@
       <c r="G90" t="s">
         <v>244</v>
       </c>
-      <c r="H90" t="s">
-        <v>245</v>
-      </c>
-      <c r="J90" t="s">
+      <c r="H90">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="I90" t="s">
         <v>245</v>
       </c>
       <c r="K90" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L90" t="s">
         <v>246</v>
@@ -3525,8 +3796,11 @@
       <c r="M90" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N90" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>183</v>
       </c>
@@ -3548,8 +3822,11 @@
       <c r="G91" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H91">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>29</v>
       </c>
@@ -3571,8 +3848,8 @@
       <c r="G92" t="s">
         <v>244</v>
       </c>
-      <c r="H92" t="s">
-        <v>245</v>
+      <c r="H92">
+        <v>62.5</v>
       </c>
       <c r="I92" t="s">
         <v>245</v>
@@ -3581,13 +3858,16 @@
         <v>245</v>
       </c>
       <c r="K92" t="s">
+        <v>245</v>
+      </c>
+      <c r="L92" t="s">
         <v>246</v>
       </c>
-      <c r="L92" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M92" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>157</v>
       </c>
@@ -3609,8 +3889,8 @@
       <c r="G93" t="s">
         <v>244</v>
       </c>
-      <c r="L93" t="s">
-        <v>245</v>
+      <c r="H93">
+        <v>54.29</v>
       </c>
       <c r="M93" t="s">
         <v>245</v>
@@ -3618,8 +3898,11 @@
       <c r="N93" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O93" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>159</v>
       </c>
@@ -3641,8 +3924,11 @@
       <c r="G94" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H94">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>200</v>
       </c>
@@ -3664,8 +3950,11 @@
       <c r="G95" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H95">
+        <v>91.67</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>201</v>
       </c>
@@ -3687,8 +3976,11 @@
       <c r="G96" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H96">
+        <v>83.33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>162</v>
       </c>
@@ -3710,20 +4002,23 @@
       <c r="G97" t="s">
         <v>244</v>
       </c>
-      <c r="J97" t="s">
-        <v>246</v>
+      <c r="H97">
+        <v>40</v>
       </c>
       <c r="K97" t="s">
         <v>246</v>
       </c>
       <c r="L97" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M97" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N97" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>209</v>
       </c>
@@ -3745,8 +4040,11 @@
       <c r="G98" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>164</v>
       </c>
@@ -3768,8 +4066,8 @@
       <c r="G99" t="s">
         <v>244</v>
       </c>
-      <c r="H99" t="s">
-        <v>245</v>
+      <c r="H99">
+        <v>85.19</v>
       </c>
       <c r="I99" t="s">
         <v>245</v>
@@ -3792,8 +4090,11 @@
       <c r="O99" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P99" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>166</v>
       </c>
@@ -3815,15 +4116,18 @@
       <c r="G100" t="s">
         <v>244</v>
       </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q100" xr:uid="{6C7A5D07-62C5-4D4B-894B-D70E7F454EC8}">
+  <autoFilter ref="A1:R100" xr:uid="{6C7A5D07-62C5-4D4B-894B-D70E7F454EC8}">
     <filterColumn colId="6">
       <filters>
         <filter val="General English"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q100">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R100">
       <sortCondition ref="G1:G100"/>
     </sortState>
   </autoFilter>
@@ -3834,23 +4138,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="00f8db7d-6344-4ed2-8eef-57c71a91197f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010078C9C65FC7C3B645B893F0F27436F697" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eec8d382f23dba0cf0fbe36c294a98d7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="00f8db7d-6344-4ed2-8eef-57c71a91197f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="28cc81e51d51e94eabac21478c82acde" ns3:_="">
     <xsd:import namespace="00f8db7d-6344-4ed2-8eef-57c71a91197f"/>
@@ -4044,25 +4331,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F05FA449-DDE7-462C-BCD0-5721611331AE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="00f8db7d-6344-4ed2-8eef-57c71a91197f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13A364F2-97CE-4DE0-A93D-9261F1C66AF5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="00f8db7d-6344-4ed2-8eef-57c71a91197f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C8D0A2F-DDB4-41A3-A431-BD063834BEED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4078,4 +4364,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13A364F2-97CE-4DE0-A93D-9261F1C66AF5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F05FA449-DDE7-462C-BCD0-5721611331AE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00f8db7d-6344-4ed2-8eef-57c71a91197f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SMEI Student Progression.xlsx
+++ b/SMEI Student Progression.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://smicollege-my.sharepoint.com/personal/chunhim_lee_smic_edu_au/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="846" documentId="8_{6F61C2F0-E5B6-4CF1-9A54-C774EE3CE7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF69A657-D3A4-4B1D-B733-1FE15C026EE8}"/>
+  <xr:revisionPtr revIDLastSave="851" documentId="8_{6F61C2F0-E5B6-4CF1-9A54-C774EE3CE7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CF8B807-5924-462D-9154-86BF4A7AAF23}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5D51EFEA-7334-4EAD-A029-1AF1D43C51BE}"/>
+    <workbookView minimized="1" xWindow="10770" yWindow="285" windowWidth="15690" windowHeight="14895" xr2:uid="{5D51EFEA-7334-4EAD-A029-1AF1D43C51BE}"/>
   </bookViews>
   <sheets>
     <sheet name="SMEI" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SMEI!$A$1:$R$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SMEI!$A$1:$S$100</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="249">
   <si>
     <t>StudentID</t>
   </si>
@@ -783,6 +783,9 @@
   </si>
   <si>
     <t>Attendance</t>
+  </si>
+  <si>
+    <t>Progression</t>
   </si>
 </sst>
 </file>
@@ -1183,11 +1186,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7A5D07-62C5-4D4B-894B-D70E7F454EC8}">
-  <sheetPr codeName="Sheet1" filterMode="1"/>
-  <dimension ref="A1:R100"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:S100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,16 +1202,17 @@
     <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="27.85546875" customWidth="1"/>
-    <col min="11" max="12" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="27.85546875" customWidth="1"/>
+    <col min="12" max="13" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1231,40 +1235,43 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I1" t="s">
         <v>247</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>234</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>235</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>236</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>237</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>238</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>239</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>240</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>241</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>242</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>220</v>
       </c>
@@ -1286,11 +1293,11 @@
       <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>168</v>
       </c>
@@ -1312,11 +1319,11 @@
       <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>86.67</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1338,11 +1345,11 @@
       <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>37.78</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1364,11 +1371,11 @@
       <c r="G5" t="s">
         <v>10</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>73.33</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1390,17 +1397,17 @@
       <c r="G6" t="s">
         <v>10</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>57.33</v>
       </c>
-      <c r="M6" t="s">
-        <v>245</v>
-      </c>
       <c r="N6" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -1422,17 +1429,17 @@
       <c r="G7" t="s">
         <v>10</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>90.77</v>
-      </c>
-      <c r="M7" t="s">
-        <v>246</v>
       </c>
       <c r="N7" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1454,11 +1461,11 @@
       <c r="G8" t="s">
         <v>10</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
@@ -1480,17 +1487,17 @@
       <c r="G9" t="s">
         <v>10</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>68.89</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>246</v>
       </c>
-      <c r="N9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
@@ -1512,17 +1519,17 @@
       <c r="G10" t="s">
         <v>10</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>55.79</v>
       </c>
-      <c r="M10" t="s">
-        <v>245</v>
-      </c>
       <c r="N10" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>169</v>
       </c>
@@ -1544,11 +1551,11 @@
       <c r="G11" t="s">
         <v>10</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>170</v>
       </c>
@@ -1570,11 +1577,11 @@
       <c r="G12" t="s">
         <v>10</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>214</v>
       </c>
@@ -1596,11 +1603,11 @@
       <c r="G13" t="s">
         <v>10</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>171</v>
       </c>
@@ -1622,11 +1629,11 @@
       <c r="G14" t="s">
         <v>10</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>233</v>
       </c>
@@ -1648,11 +1655,11 @@
       <c r="G15" t="s">
         <v>244</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>231</v>
       </c>
@@ -1674,11 +1681,11 @@
       <c r="G16" t="s">
         <v>244</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>222</v>
       </c>
@@ -1700,11 +1707,11 @@
       <c r="G17" t="s">
         <v>244</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>218</v>
       </c>
@@ -1726,11 +1733,11 @@
       <c r="G18" t="s">
         <v>244</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>198</v>
       </c>
@@ -1752,11 +1759,11 @@
       <c r="G19" t="s">
         <v>244</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>176</v>
       </c>
@@ -1778,11 +1785,11 @@
       <c r="G20" t="s">
         <v>244</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>177</v>
       </c>
@@ -1804,11 +1811,11 @@
       <c r="G21" t="s">
         <v>244</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>178</v>
       </c>
@@ -1830,11 +1837,11 @@
       <c r="G22" t="s">
         <v>244</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>35.71</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>224</v>
       </c>
@@ -1856,11 +1863,11 @@
       <c r="G23" t="s">
         <v>244</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>179</v>
       </c>
@@ -1882,11 +1889,11 @@
       <c r="G24" t="s">
         <v>244</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>95.83</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>199</v>
       </c>
@@ -1908,11 +1915,11 @@
       <c r="G25" t="s">
         <v>244</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>207</v>
       </c>
@@ -1934,11 +1941,11 @@
       <c r="G26" t="s">
         <v>244</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>208</v>
       </c>
@@ -1960,11 +1967,11 @@
       <c r="G27" t="s">
         <v>244</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
@@ -1986,11 +1993,11 @@
       <c r="G28" t="s">
         <v>244</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>26.67</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>192</v>
       </c>
@@ -2012,11 +2019,11 @@
       <c r="G29" t="s">
         <v>244</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>87.5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>34</v>
       </c>
@@ -2038,11 +2045,11 @@
       <c r="G30" t="s">
         <v>244</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>46.67</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>36</v>
       </c>
@@ -2064,11 +2071,11 @@
       <c r="G31" t="s">
         <v>244</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>56.25</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>38</v>
       </c>
@@ -2090,11 +2097,11 @@
       <c r="G32" t="s">
         <v>244</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>78.13</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>41</v>
       </c>
@@ -2116,11 +2123,11 @@
       <c r="G33" t="s">
         <v>244</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>44</v>
       </c>
@@ -2142,11 +2149,11 @@
       <c r="G34" t="s">
         <v>244</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>46</v>
       </c>
@@ -2168,14 +2175,14 @@
       <c r="G35" t="s">
         <v>244</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>84.38</v>
       </c>
-      <c r="J35" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>180</v>
       </c>
@@ -2197,11 +2204,11 @@
       <c r="G36" t="s">
         <v>244</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>48</v>
       </c>
@@ -2223,11 +2230,11 @@
       <c r="G37" t="s">
         <v>244</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>54.29</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>216</v>
       </c>
@@ -2249,11 +2256,11 @@
       <c r="G38" t="s">
         <v>244</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -2275,14 +2282,14 @@
       <c r="G39" t="s">
         <v>244</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>84.38</v>
       </c>
-      <c r="J39" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -2304,14 +2311,14 @@
       <c r="G40" t="s">
         <v>244</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>62.5</v>
       </c>
-      <c r="J40" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -2333,17 +2340,17 @@
       <c r="G41" t="s">
         <v>244</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>68.75</v>
-      </c>
-      <c r="I41" t="s">
-        <v>246</v>
       </c>
       <c r="J41" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -2365,11 +2372,11 @@
       <c r="G42" t="s">
         <v>244</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -2391,11 +2398,11 @@
       <c r="G43" t="s">
         <v>244</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -2417,11 +2424,11 @@
       <c r="G44" t="s">
         <v>244</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>59.62</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -2443,11 +2450,11 @@
       <c r="G45" t="s">
         <v>244</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -2469,17 +2476,17 @@
       <c r="G46" t="s">
         <v>244</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>40</v>
-      </c>
-      <c r="I46" t="s">
-        <v>246</v>
       </c>
       <c r="J46" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>70</v>
       </c>
@@ -2501,11 +2508,11 @@
       <c r="G47" t="s">
         <v>244</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>72</v>
       </c>
@@ -2527,17 +2534,17 @@
       <c r="G48" t="s">
         <v>244</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>81.25</v>
-      </c>
-      <c r="I48" t="s">
-        <v>246</v>
       </c>
       <c r="J48" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K48" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>228</v>
       </c>
@@ -2559,11 +2566,11 @@
       <c r="G49" t="s">
         <v>244</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>74</v>
       </c>
@@ -2585,17 +2592,17 @@
       <c r="G50" t="s">
         <v>244</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>76.56</v>
       </c>
-      <c r="M50" t="s">
-        <v>245</v>
-      </c>
       <c r="N50" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O50" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>76</v>
       </c>
@@ -2617,11 +2624,11 @@
       <c r="G51" t="s">
         <v>244</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>79</v>
       </c>
@@ -2643,14 +2650,14 @@
       <c r="G52" t="s">
         <v>244</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>80.36</v>
       </c>
-      <c r="J52" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K52" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>81</v>
       </c>
@@ -2672,17 +2679,17 @@
       <c r="G53" t="s">
         <v>244</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>81.25</v>
       </c>
-      <c r="I53" t="s">
-        <v>245</v>
-      </c>
       <c r="J53" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K53" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>181</v>
       </c>
@@ -2704,11 +2711,11 @@
       <c r="G54" t="s">
         <v>244</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>87.5</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>83</v>
       </c>
@@ -2730,11 +2737,11 @@
       <c r="G55" t="s">
         <v>244</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>81.05</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>85</v>
       </c>
@@ -2756,17 +2763,17 @@
       <c r="G56" t="s">
         <v>244</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>80.88</v>
-      </c>
-      <c r="I56" t="s">
-        <v>246</v>
       </c>
       <c r="J56" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K56" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>87</v>
       </c>
@@ -2788,14 +2795,14 @@
       <c r="G57" t="s">
         <v>244</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>72.06</v>
       </c>
-      <c r="I57" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J57" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>89</v>
       </c>
@@ -2817,11 +2824,11 @@
       <c r="G58" t="s">
         <v>244</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>91</v>
       </c>
@@ -2843,11 +2850,11 @@
       <c r="G59" t="s">
         <v>244</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>93</v>
       </c>
@@ -2869,17 +2876,17 @@
       <c r="G60" t="s">
         <v>244</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>82.89</v>
-      </c>
-      <c r="I60" t="s">
-        <v>246</v>
       </c>
       <c r="J60" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K60" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>96</v>
       </c>
@@ -2901,17 +2908,17 @@
       <c r="G61" t="s">
         <v>244</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>82.14</v>
-      </c>
-      <c r="K61" t="s">
-        <v>246</v>
       </c>
       <c r="L61" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M61" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>193</v>
       </c>
@@ -2933,11 +2940,11 @@
       <c r="G62" t="s">
         <v>244</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>73.33</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>98</v>
       </c>
@@ -2959,14 +2966,14 @@
       <c r="G63" t="s">
         <v>244</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>56.82</v>
       </c>
-      <c r="M63" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N63" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>101</v>
       </c>
@@ -2988,11 +2995,11 @@
       <c r="G64" t="s">
         <v>244</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>29.35</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>104</v>
       </c>
@@ -3014,11 +3021,11 @@
       <c r="G65" t="s">
         <v>244</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>106</v>
       </c>
@@ -3040,11 +3047,11 @@
       <c r="G66" t="s">
         <v>244</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>42.86</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>108</v>
       </c>
@@ -3066,17 +3073,17 @@
       <c r="G67" t="s">
         <v>244</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>73.75</v>
-      </c>
-      <c r="K67" t="s">
-        <v>246</v>
       </c>
       <c r="L67" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M67" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>110</v>
       </c>
@@ -3098,11 +3105,11 @@
       <c r="G68" t="s">
         <v>244</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>53.13</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>182</v>
       </c>
@@ -3124,11 +3131,11 @@
       <c r="G69" t="s">
         <v>244</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>112</v>
       </c>
@@ -3150,17 +3157,17 @@
       <c r="G70" t="s">
         <v>244</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>81.819999999999993</v>
-      </c>
-      <c r="I70" t="s">
-        <v>246</v>
       </c>
       <c r="J70" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K70" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>114</v>
       </c>
@@ -3182,11 +3189,11 @@
       <c r="G71" t="s">
         <v>244</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>50.77</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>117</v>
       </c>
@@ -3208,17 +3215,17 @@
       <c r="G72" t="s">
         <v>244</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>80.77</v>
-      </c>
-      <c r="M72" t="s">
-        <v>246</v>
       </c>
       <c r="N72" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O72" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>120</v>
       </c>
@@ -3240,11 +3247,11 @@
       <c r="G73" t="s">
         <v>244</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>53.85</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>122</v>
       </c>
@@ -3266,17 +3273,17 @@
       <c r="G74" t="s">
         <v>244</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>77.31</v>
       </c>
-      <c r="K74" t="s">
-        <v>245</v>
-      </c>
       <c r="L74" t="s">
+        <v>245</v>
+      </c>
+      <c r="M74" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>124</v>
       </c>
@@ -3298,17 +3305,17 @@
       <c r="G75" t="s">
         <v>244</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>81</v>
       </c>
-      <c r="K75" t="s">
-        <v>245</v>
-      </c>
       <c r="L75" t="s">
+        <v>245</v>
+      </c>
+      <c r="M75" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>126</v>
       </c>
@@ -3330,17 +3337,17 @@
       <c r="G76" t="s">
         <v>244</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>29.41</v>
       </c>
-      <c r="J76" t="s">
-        <v>245</v>
-      </c>
       <c r="K76" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L76" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>129</v>
       </c>
@@ -3362,17 +3369,17 @@
       <c r="G77" t="s">
         <v>244</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>83.48</v>
       </c>
-      <c r="K77" t="s">
-        <v>245</v>
-      </c>
       <c r="L77" t="s">
+        <v>245</v>
+      </c>
+      <c r="M77" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>131</v>
       </c>
@@ -3394,17 +3401,17 @@
       <c r="G78" t="s">
         <v>244</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>86.96</v>
       </c>
-      <c r="K78" t="s">
-        <v>245</v>
-      </c>
       <c r="L78" t="s">
+        <v>245</v>
+      </c>
+      <c r="M78" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>133</v>
       </c>
@@ -3426,11 +3433,11 @@
       <c r="G79" t="s">
         <v>244</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>135</v>
       </c>
@@ -3452,20 +3459,20 @@
       <c r="G80" t="s">
         <v>244</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>93.53</v>
       </c>
-      <c r="J80" t="s">
-        <v>245</v>
-      </c>
       <c r="K80" t="s">
         <v>245</v>
       </c>
       <c r="L80" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M80" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>137</v>
       </c>
@@ -3487,23 +3494,23 @@
       <c r="G81" t="s">
         <v>244</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>81.290000000000006</v>
-      </c>
-      <c r="I81" t="s">
-        <v>246</v>
       </c>
       <c r="J81" t="s">
         <v>246</v>
       </c>
       <c r="K81" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L81" t="s">
+        <v>245</v>
+      </c>
+      <c r="M81" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>139</v>
       </c>
@@ -3525,20 +3532,20 @@
       <c r="G82" t="s">
         <v>244</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>82.86</v>
       </c>
-      <c r="K82" t="s">
-        <v>245</v>
-      </c>
-      <c r="M82" t="s">
+      <c r="L82" t="s">
+        <v>245</v>
+      </c>
+      <c r="N82" t="s">
         <v>246</v>
       </c>
-      <c r="N82" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O82" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>141</v>
       </c>
@@ -3560,14 +3567,14 @@
       <c r="G83" t="s">
         <v>244</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>51.61</v>
       </c>
-      <c r="N83" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O83" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>143</v>
       </c>
@@ -3589,12 +3596,9 @@
       <c r="G84" t="s">
         <v>244</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>84.62</v>
       </c>
-      <c r="I84" t="s">
-        <v>245</v>
-      </c>
       <c r="J84" t="s">
         <v>245</v>
       </c>
@@ -3602,10 +3606,13 @@
         <v>245</v>
       </c>
       <c r="L84" t="s">
+        <v>245</v>
+      </c>
+      <c r="M84" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>145</v>
       </c>
@@ -3627,12 +3634,9 @@
       <c r="G85" t="s">
         <v>244</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>81.33</v>
       </c>
-      <c r="I85" t="s">
-        <v>245</v>
-      </c>
       <c r="J85" t="s">
         <v>245</v>
       </c>
@@ -3642,8 +3646,11 @@
       <c r="L85" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M85" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>147</v>
       </c>
@@ -3665,11 +3672,11 @@
       <c r="G86" t="s">
         <v>244</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>49.21</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>149</v>
       </c>
@@ -3691,23 +3698,23 @@
       <c r="G87" t="s">
         <v>244</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>59.35</v>
       </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>246</v>
       </c>
-      <c r="J87" t="s">
-        <v>245</v>
-      </c>
       <c r="K87" t="s">
         <v>245</v>
       </c>
       <c r="L87" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M87" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>151</v>
       </c>
@@ -3729,11 +3736,11 @@
       <c r="G88" t="s">
         <v>244</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>74.42</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>153</v>
       </c>
@@ -3755,11 +3762,11 @@
       <c r="G89" t="s">
         <v>244</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>82.5</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>155</v>
       </c>
@@ -3781,17 +3788,14 @@
       <c r="G90" t="s">
         <v>244</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>69.599999999999994</v>
       </c>
-      <c r="I90" t="s">
-        <v>245</v>
-      </c>
-      <c r="K90" t="s">
+      <c r="J90" t="s">
         <v>245</v>
       </c>
       <c r="L90" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M90" t="s">
         <v>246</v>
@@ -3799,8 +3803,11 @@
       <c r="N90" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O90" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>183</v>
       </c>
@@ -3822,11 +3829,11 @@
       <c r="G91" t="s">
         <v>244</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>29</v>
       </c>
@@ -3848,12 +3855,9 @@
       <c r="G92" t="s">
         <v>244</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>62.5</v>
       </c>
-      <c r="I92" t="s">
-        <v>245</v>
-      </c>
       <c r="J92" t="s">
         <v>245</v>
       </c>
@@ -3861,13 +3865,16 @@
         <v>245</v>
       </c>
       <c r="L92" t="s">
+        <v>245</v>
+      </c>
+      <c r="M92" t="s">
         <v>246</v>
       </c>
-      <c r="M92" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N92" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>157</v>
       </c>
@@ -3889,20 +3896,20 @@
       <c r="G93" t="s">
         <v>244</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>54.29</v>
       </c>
-      <c r="M93" t="s">
-        <v>245</v>
-      </c>
       <c r="N93" t="s">
         <v>245</v>
       </c>
       <c r="O93" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P93" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>159</v>
       </c>
@@ -3924,11 +3931,11 @@
       <c r="G94" t="s">
         <v>244</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>200</v>
       </c>
@@ -3950,11 +3957,11 @@
       <c r="G95" t="s">
         <v>244</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>91.67</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>201</v>
       </c>
@@ -3976,11 +3983,11 @@
       <c r="G96" t="s">
         <v>244</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>83.33</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>162</v>
       </c>
@@ -4002,23 +4009,23 @@
       <c r="G97" t="s">
         <v>244</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>40</v>
-      </c>
-      <c r="K97" t="s">
-        <v>246</v>
       </c>
       <c r="L97" t="s">
         <v>246</v>
       </c>
       <c r="M97" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N97" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O97" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>209</v>
       </c>
@@ -4040,11 +4047,11 @@
       <c r="G98" t="s">
         <v>244</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>164</v>
       </c>
@@ -4066,12 +4073,9 @@
       <c r="G99" t="s">
         <v>244</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>85.19</v>
       </c>
-      <c r="I99" t="s">
-        <v>245</v>
-      </c>
       <c r="J99" t="s">
         <v>245</v>
       </c>
@@ -4093,8 +4097,11 @@
       <c r="P99" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q99" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>166</v>
       </c>
@@ -4116,18 +4123,13 @@
       <c r="G100" t="s">
         <v>244</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R100" xr:uid="{6C7A5D07-62C5-4D4B-894B-D70E7F454EC8}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="General English"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R100">
+  <autoFilter ref="A1:S100" xr:uid="{6C7A5D07-62C5-4D4B-894B-D70E7F454EC8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S100">
       <sortCondition ref="G1:G100"/>
     </sortState>
   </autoFilter>
@@ -4138,6 +4140,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="00f8db7d-6344-4ed2-8eef-57c71a91197f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010078C9C65FC7C3B645B893F0F27436F697" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eec8d382f23dba0cf0fbe36c294a98d7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="00f8db7d-6344-4ed2-8eef-57c71a91197f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="28cc81e51d51e94eabac21478c82acde" ns3:_="">
     <xsd:import namespace="00f8db7d-6344-4ed2-8eef-57c71a91197f"/>
@@ -4331,24 +4350,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F05FA449-DDE7-462C-BCD0-5721611331AE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00f8db7d-6344-4ed2-8eef-57c71a91197f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="00f8db7d-6344-4ed2-8eef-57c71a91197f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13A364F2-97CE-4DE0-A93D-9261F1C66AF5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C8D0A2F-DDB4-41A3-A431-BD063834BEED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4364,22 +4384,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13A364F2-97CE-4DE0-A93D-9261F1C66AF5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F05FA449-DDE7-462C-BCD0-5721611331AE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="00f8db7d-6344-4ed2-8eef-57c71a91197f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>